--- a/PIList_recentIntake.xlsx
+++ b/PIList_recentIntake.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/git/pub/PIWordCloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEDB573-36E9-F047-AB65-8EC5095805BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED6C81-5450-4A47-A72B-3937CC7AE344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1000" windowWidth="17740" windowHeight="16440" xr2:uid="{2400B8D6-4AA8-D445-B235-3D44330AA041}"/>
+    <workbookView xWindow="1560" yWindow="1000" windowWidth="27260" windowHeight="26240" xr2:uid="{2400B8D6-4AA8-D445-B235-3D44330AA041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>Kevin Beier (SOM)</t>
   </si>
@@ -361,6 +362,42 @@
   </si>
   <si>
     <t>Jun</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Yassa</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Grosberg</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Botvinick</t>
+  </si>
+  <si>
+    <t>Elliot</t>
   </si>
 </sst>
 </file>
@@ -862,7 +899,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,74 +1235,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>38</v>
       </c>
